--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>double</t>
   </si>
   <si>
     <t>provider</t>
@@ -770,8 +767,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -906,7 +903,7 @@
     </row>
     <row r="12" spans="1:5" ht="21.75" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -950,7 +947,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -963,7 +960,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -1052,7 +1049,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>28</v>
@@ -1065,7 +1062,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>28</v>
@@ -1078,7 +1075,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="21"/>
       <c r="B25" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -1091,7 +1088,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -1106,7 +1103,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
@@ -1115,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1299,7 +1296,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>7</v>
@@ -1309,7 +1306,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="21"/>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -1322,7 +1319,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="21"/>
       <c r="B43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>29</v>
@@ -1335,7 +1332,7 @@
     <row r="44" spans="1:5">
       <c r="A44" s="21"/>
       <c r="B44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>29</v>
@@ -1348,7 +1345,7 @@
     <row r="45" spans="1:5">
       <c r="A45" s="21"/>
       <c r="B45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
@@ -1361,7 +1358,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="21"/>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -1374,7 +1371,7 @@
     <row r="47" spans="1:5">
       <c r="A47" s="21"/>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
@@ -1387,7 +1384,7 @@
     <row r="48" spans="1:5">
       <c r="A48" s="21"/>
       <c r="B48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>29</v>
@@ -1400,13 +1397,13 @@
     <row r="49" spans="1:5">
       <c r="A49" s="21"/>
       <c r="B49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="3"/>
     </row>
